--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -254,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +264,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,12 +385,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,7 +400,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,29 +736,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="1.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="25"/>
+    <col min="11" max="11" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
@@ -746,48 +778,58 @@
       <c r="I1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="17">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -796,7 +838,7 @@
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -805,25 +847,30 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -832,7 +879,13 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="J7" s="25">
+        <v>5</v>
+      </c>
+      <c r="K7" s="27">
+        <v>45125</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -841,7 +894,13 @@
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="J8" s="25">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27">
+        <v>45125</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -850,7 +909,7 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -859,7 +918,7 @@
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -868,7 +927,7 @@
       <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -877,25 +936,30 @@
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="19" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -904,7 +968,7 @@
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -913,7 +977,7 @@
       <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -922,20 +986,26 @@
       <c r="B16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="J17" s="5">
+      <c r="B17" s="21">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="25">
         <v>1</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="27">
         <v>45124</v>
       </c>
     </row>
@@ -946,7 +1016,7 @@
       <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -955,20 +1025,26 @@
       <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="B20" s="21">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="27">
         <v>45124</v>
       </c>
     </row>
@@ -979,7 +1055,7 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -988,7 +1064,7 @@
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -997,7 +1073,7 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -1006,7 +1082,7 @@
       <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -1015,35 +1091,47 @@
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8">
-        <v>2</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="J26" s="5">
-        <v>2</v>
-      </c>
-      <c r="K26" s="18">
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="25">
+        <v>2</v>
+      </c>
+      <c r="K26" s="27">
         <v>45124</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="J27" s="5">
+      <c r="B27" s="17">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="25">
         <v>3</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="27">
         <v>45124</v>
       </c>
     </row>
@@ -1054,7 +1142,7 @@
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1063,8 +1151,8 @@
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="K29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -1073,7 +1161,7 @@
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -1082,7 +1170,7 @@
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1091,7 +1179,7 @@
       <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1100,7 +1188,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1109,7 +1197,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -1118,7 +1206,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -1127,7 +1215,7 @@
       <c r="B37" s="10">
         <v>4</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>C Programming:</t>
   </si>
@@ -202,13 +202,169 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a collection of hetrogeneous data types.Structures can hold different types of data under a single name. structures can use in Structures allow programmers to define their own custom data types with specific attributes and behaviors. By encapsulating related data into a structure, you can create a higher level of abstraction and modularity in your code. This can make the code easier to read, understand, and maintain.                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">also is a collection of different data items. But in union the memory will be allocated for the largest element and it will share with the others.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Structure:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Structures help in organizing data in a logical manner.Structures can be used to pass complex data to functions. By defining a structure, you can encapsulate related data into a single parameter, making it easier to pass and manipulate data as a whole. This is especially useful when you need to pass multiple pieces of related information to a function. Structures provide a way to allocate memory for multiple variables of different data types in a contiguous block.                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Union</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unions in C programming are used to define a single variable that can hold different types of data at different times.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Employe details record.                             2. pass a structure by call by reference.                                     3.pass a structure by call by value.                                                4.Nested structure.                       5.structure with in a union and union with in  a structure.        6.avoid structure padding by #pragma, attribruite packed.</t>
+  </si>
+  <si>
+    <t>To invoke the functions dynamically we use function pointers.</t>
+  </si>
+  <si>
+    <t>Function pointers can store the address of a function.</t>
+  </si>
+  <si>
+    <t>ON HOLD</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +404,55 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -385,41 +589,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,443 +949,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="1.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="9.140625" style="25"/>
-    <col min="11" max="11" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="11" max="11" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="150.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="L1" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="15">
         <v>5</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="16">
         <v>45125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="260.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="J8" s="25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="15">
         <v>3</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="16">
         <v>45125</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="20"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="25">
+      <c r="B17" s="26">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27">
         <v>1</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="29">
         <v>45124</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="25">
-        <v>2</v>
-      </c>
-      <c r="K20" s="27">
+      <c r="B20" s="26">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27">
+        <v>2</v>
+      </c>
+      <c r="K20" s="29">
         <v>45124</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="17">
-        <v>2</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="25">
-        <v>2</v>
-      </c>
-      <c r="K26" s="27">
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="15">
+        <v>2</v>
+      </c>
+      <c r="K26" s="16">
         <v>45124</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="17">
-        <v>2</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="25">
+      <c r="B27" s="12">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="15">
         <v>3</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="16">
         <v>45124</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="20"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1179,7 +1430,7 @@
       <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1188,7 +1439,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1197,7 +1448,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -1206,7 +1457,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -1215,7 +1466,7 @@
       <c r="B37" s="10">
         <v>4</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -29,9 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
-  <si>
-    <t>C Programming:</t>
-  </si>
   <si>
     <t>decision making, Loops, switch case</t>
   </si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,54 +972,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="150.75" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1029,20 +1029,20 @@
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1050,18 +1050,18 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
@@ -1070,20 +1070,20 @@
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1091,19 +1091,19 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J7" s="15">
         <v>5</v>
@@ -1114,20 +1114,20 @@
     </row>
     <row r="8" spans="1:12" ht="260.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J8" s="15">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="9" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
@@ -1153,12 +1153,12 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1185,20 +1185,20 @@
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="26">
         <v>2</v>
@@ -1254,12 +1254,12 @@
         <v>45124</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="26">
         <v>2</v>
@@ -1296,12 +1296,12 @@
         <v>45124</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8">
         <v>0</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="8">
         <v>0</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="11"/>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="11"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10">
         <v>0</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="10">
         <v>3</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10">
         <v>4</v>
@@ -1494,10 +1494,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>decision making, Loops, switch case</t>
   </si>
@@ -192,9 +192,6 @@
     <t>it allow greater precision and require fewer resources,bitwise operators can make code faster and more efficient.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. extracting n bits from number from pth position. 2. REPLACING n bits from number from pth position.  3. TOGGLING n bits from number from pth position. 4. multiplication of number with bitwise operators.                    5.Find the number is power of 2.                                 6.swap numbers with bitwise operations.              7.divide the num with power of 2                </t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>To invoke the functions dynamically we use function pointers.</t>
   </si>
   <si>
-    <t>Function pointers can store the address of a function.</t>
-  </si>
-  <si>
     <t>ON HOLD</t>
   </si>
   <si>
@@ -358,13 +352,303 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can store the address of a function.               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1Callbacks: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enable the concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>callbacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where a function can accept another function as an argument. By passing function pointers as arguments, you can define custom behavior to be executed when specific events occur.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Dynamic loading and linking:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function pointers are crucial when working with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dynamic libraries </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamically loaded modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They enable the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loading and invocation of functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from shared libraries </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at runtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This is commonly used in scenarios where plugins or extensions need to be dynamically added to a program without requiring recompilation.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Data structures and algorithms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function pointers are often used in data structures and algorithms to allow for customizable behavior.                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.Dynamic dispatch:                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function pointers allow for dynamic dispatch, which means that the function to be executed can be determined at runtime. This is particularly valuable in scenarios where different functions need to be called based on user input, configuration settings, or other runtime conditions. Function pointers enable the flexibility to choose and invoke different functions dynamically.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To denote life and scope of a variable </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">storage classes are 4 types,                  1. AUTO                                                  2.STATIC                                                    3.EXTERN                                                     4.REGISTER                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">By using extern we will access variable/function which declared in another file.                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">By using static variable, scope will be within the file/function in which we have declared.                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">By using register variable,we can access that variable very fast.                                                 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. extracting n bits from number from pth position.                            2. REPLACING n bits from number from pth position.                                  3. TOGGLING n bits from number from pth position.                          4. multiplication of number with bitwise operators.                    5.Find the number is power of 2 or not.                                         6.swap numbers with bitwise operations.                           7.divide the num with power of 2                </t>
+  </si>
+  <si>
+    <t>1. Access a variable in another file                                                      2. Access a function in another file.                                                        3.use static as a local variable.      4. Use static as global variable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +735,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -458,7 +749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -597,24 +894,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -629,11 +908,41 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,57 +1260,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="1.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="5"/>
     <col min="10" max="10" width="9.140625" style="15"/>
-    <col min="11" max="11" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="34" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="150.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>63</v>
+      <c r="L1" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -1011,7 +1320,7 @@
       <c r="B2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="11" t="s">
         <v>43</v>
       </c>
@@ -1026,6 +1335,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -1034,7 +1344,7 @@
       <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
@@ -1049,6 +1359,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1057,16 +1368,24 @@
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1075,7 +1394,7 @@
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1090,20 +1409,21 @@
       <c r="I6" s="13"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="J7" s="15">
         <v>5</v>
@@ -1112,67 +1432,86 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="260.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="15">
         <v>3</v>
       </c>
       <c r="K8" s="16">
         <v>45125</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="28"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="20"/>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1181,16 +1520,16 @@
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
@@ -1198,13 +1537,14 @@
         <v>53</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1213,7 +1553,7 @@
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1222,7 +1562,7 @@
       <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1231,30 +1571,30 @@
       <c r="B16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="20">
         <v>2</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27">
+      <c r="C17" s="28"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21">
         <v>1</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="23">
         <v>45124</v>
       </c>
-      <c r="L17" s="30" t="s">
-        <v>62</v>
+      <c r="L17" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1264,7 +1604,7 @@
       <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1273,30 +1613,30 @@
       <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="20">
         <v>2</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27">
+      <c r="C20" s="28"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="23">
         <v>45124</v>
       </c>
-      <c r="L20" s="30" t="s">
-        <v>62</v>
+      <c r="L20" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1306,7 +1646,7 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1315,7 +1655,7 @@
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -1324,7 +1664,7 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -1333,7 +1673,7 @@
       <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -1342,7 +1682,7 @@
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -1351,7 +1691,7 @@
       <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1364,6 +1704,7 @@
       <c r="K26" s="16">
         <v>45124</v>
       </c>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
@@ -1372,7 +1713,7 @@
       <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1385,6 +1726,7 @@
       <c r="K27" s="16">
         <v>45124</v>
       </c>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1393,7 +1735,7 @@
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1402,7 +1744,7 @@
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="28"/>
       <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1412,7 +1754,7 @@
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -1421,7 +1763,7 @@
       <c r="B32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1430,7 +1772,7 @@
       <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1439,7 +1781,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1448,7 +1790,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -1457,7 +1799,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -1466,7 +1808,7 @@
       <c r="B37" s="10">
         <v>4</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>decision making, Loops, switch case</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>1. swap the numbers   2.call by value  3.call by reference  4. print structure elements by passing through function  5. reverese the elements using functions</t>
-  </si>
-  <si>
-    <t>to perform operations on the data at bit level</t>
   </si>
   <si>
     <t>it allow greater precision and require fewer resources,bitwise operators can make code faster and more efficient.</t>
@@ -351,9 +348,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -638,10 +632,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. extracting n bits from number from pth position.                            2. REPLACING n bits from number from pth position.                                  3. TOGGLING n bits from number from pth position.                          4. multiplication of number with bitwise operators.                    5.Find the number is power of 2 or not.                                         6.swap numbers with bitwise operations.                           7.divide the num with power of 2                </t>
-  </si>
-  <si>
     <t>1. Access a variable in another file                                                      2. Access a function in another file.                                                        3.use static as a local variable.      4. Use static as global variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Programming </t>
+  </si>
+  <si>
+    <t>To perform operations on the data at bit level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. extracting n bits from number from pth position.                            2. REPLACING n bits from number from pth position.                                  3. TOGGLING n bits from number from pth position.                            4. multiplication of number with bitwise operators.                    5.Find the number is power of 2 or not.                                                   6.swap numbers with bitwise operations.                                   7.divide the num with power of 2                </t>
+  </si>
+  <si>
+    <t>CAN protocol mainly used in automotive industry. It is less immune to noise, error checking possible, it uses only two wire bus.</t>
+  </si>
+  <si>
+    <t>By using Can ,both UNI-CAST and MULTI CAST pssible, there is no need of host computer to communicate between ECU's.      CAN protocol mainly used in automotive industry. It is less immune to noise, error checking possible, it uses only two wire bus.</t>
+  </si>
+  <si>
+    <t>To test the ecu's working according to requirement or not , we need testing techinques to find out bugs in ECU programming.</t>
+  </si>
+  <si>
+    <t>There are 5 test case design techniques.                                                1. Boundary value analysis.  2.Equivalence Parititon                                3.State Transistion                     4.Decision Table                           5.Error Guessing</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="150.75" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
@@ -1304,13 +1316,13 @@
         <v>42</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="L1" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -1420,10 +1432,10 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" s="15">
         <v>5</v>
@@ -1441,13 +1453,13 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -1477,7 +1489,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,19 +1510,21 @@
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>67</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="16">
+        <v>45126</v>
+      </c>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1531,13 +1545,13 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1594,7 +1608,7 @@
         <v>45124</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1636,7 +1650,7 @@
         <v>45124</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1684,7 +1698,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1706,12 @@
         <v>3</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -1706,7 +1724,7 @@
       </c>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1714,8 +1732,12 @@
         <v>3</v>
       </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>decision making, Loops, switch case</t>
   </si>
@@ -647,13 +647,42 @@
     <t>CAN protocol mainly used in automotive industry. It is less immune to noise, error checking possible, it uses only two wire bus.</t>
   </si>
   <si>
-    <t>By using Can ,both UNI-CAST and MULTI CAST pssible, there is no need of host computer to communicate between ECU's.      CAN protocol mainly used in automotive industry. It is less immune to noise, error checking possible, it uses only two wire bus.</t>
-  </si>
-  <si>
     <t>To test the ecu's working according to requirement or not , we need testing techinques to find out bugs in ECU programming.</t>
   </si>
   <si>
     <t>There are 5 test case design techniques.                                                1. Boundary value analysis.  2.Equivalence Parititon                                3.State Transistion                     4.Decision Table                           5.Error Guessing</t>
+  </si>
+  <si>
+    <t>By using Can ,both UNI-CAST and MULTI CAST pssible, there is no need of host computer to communicate between ECU's.                                           CAN protocol mainly used in automotive industry. It is less immune to noise, error checking possible, it uses only two wire bus.</t>
+  </si>
+  <si>
+    <t>Strings provide a convenient and efficient way to handle textual data.                                  Strings are commonly used to read data from files, process the content,and write back to files.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STRINGS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Is a collection/sequence of characters terminated with NULL character. Strings are used in Text processing,File handling,Command line arguments,String manupulation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Reverese of strings in multiple strings.                                                2.String cancatination.                     3.max no.of occurences in string    4.count the total no.of words in string                                                  5. Comparing two strings                     </t>
   </si>
 </sst>
 </file>
@@ -876,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -918,8 +947,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,24 +978,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1272,31 +1295,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="1.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="33" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="5"/>
     <col min="10" max="10" width="9.140625" style="15"/>
     <col min="11" max="11" width="18.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="23" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="150.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1344,7 @@
       <c r="K1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1332,7 +1355,7 @@
       <c r="B2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="11" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1370,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="34"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -1356,7 +1379,7 @@
       <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
@@ -1371,7 +1394,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1380,24 +1403,33 @@
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="16">
+        <v>45127</v>
+      </c>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1406,7 +1438,7 @@
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1421,7 +1453,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1430,11 +1462,11 @@
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="15">
@@ -1451,11 +1483,11 @@
       <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1470,7 +1502,7 @@
       <c r="K8" s="16">
         <v>45125</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" s="22" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
@@ -1479,16 +1511,16 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="24" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1499,7 +1531,7 @@
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -1508,14 +1540,14 @@
       <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="13"/>
@@ -1525,16 +1557,16 @@
       <c r="K11" s="16">
         <v>45126</v>
       </c>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -1543,7 +1575,7 @@
       <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="11" t="s">
         <v>66</v>
       </c>
@@ -1558,7 +1590,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="34"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1567,7 +1599,7 @@
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1576,7 +1608,7 @@
       <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1585,7 +1617,7 @@
       <c r="B16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
@@ -1594,20 +1626,20 @@
       <c r="B17" s="20">
         <v>2</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <v>1</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="16">
         <v>45124</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1618,7 +1650,7 @@
       <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1627,7 +1659,7 @@
       <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
@@ -1636,20 +1668,20 @@
       <c r="B20" s="20">
         <v>2</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="21">
+      <c r="J20" s="15">
         <v>2</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="16">
         <v>45124</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1660,7 +1692,7 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1669,7 +1701,7 @@
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -1678,7 +1710,7 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -1687,7 +1719,7 @@
       <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -1696,7 +1728,7 @@
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -1705,12 +1737,12 @@
       <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
@@ -1722,7 +1754,7 @@
       <c r="K26" s="16">
         <v>45124</v>
       </c>
-      <c r="L26" s="34"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
@@ -1731,12 +1763,12 @@
       <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
@@ -1748,7 +1780,7 @@
       <c r="K27" s="16">
         <v>45124</v>
       </c>
-      <c r="L27" s="34"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1757,7 +1789,7 @@
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1766,7 +1798,7 @@
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="31"/>
       <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1776,7 +1808,7 @@
       <c r="B30" s="8">
         <v>0</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -1785,7 +1817,7 @@
       <c r="B32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1794,7 +1826,7 @@
       <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1803,7 +1835,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1812,7 +1844,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -1821,7 +1853,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -1830,7 +1862,7 @@
       <c r="B37" s="10">
         <v>4</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bharath.xlsx
+++ b/Bharath.xlsx
@@ -790,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -978,7 +984,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,14 +1410,26 @@
       <c r="K3" s="15"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" s="40" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="37">
         <v>2</v>
       </c>
       <c r="C4" s="31"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38">
+        <v>5</v>
+      </c>
+      <c r="K4" s="39">
+        <v>45128</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1518,9 +1544,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="34" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="35" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1559,14 +1585,26 @@
       </c>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" s="40" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="37">
         <v>2</v>
       </c>
       <c r="C12" s="31"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38">
+        <v>3</v>
+      </c>
+      <c r="K12" s="39">
+        <v>45128</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -1633,13 +1671,13 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="15">
+      <c r="J17" s="21">
         <v>1</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="34">
         <v>45124</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="35" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1675,13 +1713,13 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="15">
+      <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="34">
         <v>45124</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="35" t="s">
         <v>59</v>
       </c>
     </row>
